--- a/Operation Model/operation model.xlsx
+++ b/Operation Model/operation model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>Operation model</t>
   </si>
@@ -178,13 +178,76 @@
   </si>
   <si>
     <t>Builds of a road (one turn required to complete)</t>
+  </si>
+  <si>
+    <t>saveGame</t>
+  </si>
+  <si>
+    <t>newGame</t>
+  </si>
+  <si>
+    <t>playGame</t>
+  </si>
+  <si>
+    <t>joinGame</t>
+  </si>
+  <si>
+    <t>MainMenu</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>EndTurn</t>
+  </si>
+  <si>
+    <t>becomeHost(Player p)</t>
+  </si>
+  <si>
+    <t>buildRoad</t>
+  </si>
+  <si>
+    <t>Infantry upgradeUnit(Peasant p)</t>
+  </si>
+  <si>
+    <t>Soldier upgrade(Infantry i)</t>
+  </si>
+  <si>
+    <t>Knight upgrade(Soldier s)</t>
+  </si>
+  <si>
+    <t>Infantry combine(Peasant p1, Peasant p2)</t>
+  </si>
+  <si>
+    <t>Soldier combine(Peasant p, Infantry i)</t>
+  </si>
+  <si>
+    <t>Knight combine(Peasant p, Soldier s)</t>
+  </si>
+  <si>
+    <t>Knight combine(Infantry i1, Infantry i2)</t>
+  </si>
+  <si>
+    <t>moveVillager</t>
+  </si>
+  <si>
+    <t>gatherWood</t>
+  </si>
+  <si>
+    <t>clearTombstone</t>
+  </si>
+  <si>
+    <t>cultivateMeadow</t>
+  </si>
+  <si>
+    <t>invadeVillages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,12 +264,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -236,18 +317,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -310,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,21 +612,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
@@ -558,478 +648,661 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="E10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="E18" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="E24" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30">
+      <c r="A52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="B66" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45">
+      <c r="A70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="45">
+      <c r="A71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="75" spans="1:2" ht="30">
+      <c r="A75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="B75" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" ht="30">
+      <c r="A79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="45">
+      <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="45">
+      <c r="A88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30">
+      <c r="A89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="J5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="J6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" ht="30">
+      <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B98" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="J9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="J16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="G18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="J18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="G27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="4"/>
+      <c r="B99" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
